--- a/medicine/Psychotrope/Jack_Daniel's/Jack_Daniel's.xlsx
+++ b/medicine/Psychotrope/Jack_Daniel's/Jack_Daniel's.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jack Daniel's est une distillerie américaine de Tennessee whiskey fondée par Jack Daniel en 1866, à Lynchburg, dans le Tennessee. La compagnie est la propriété du groupe Brown-Forman Corporation depuis 1957. Les bouteilles sont reconnaissables à leur forme carrée et à leur étiquette noire. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le site web du Jack Daniel's, le fondateur, Jack Daniel, est né le 5 septembre 1850, bien qu'on ne connaisse pas sa date de naissance exacte, les registres de naissance ayant été détruits dans un incendie du Palais de justice[2]. Si son année de naissance (1846) est correcte, il aurait obtenu l'agrément pour être distillateur à l'âge de 20 ans, la distillerie revendiquant comme date de fondation l'année 1866. Selon le biographe Peter Krass (en), les registres de livre foncier montrent que la distillerie n'a pas été fondée avant 1875[3]. Étrangement, son année de naissance, gravée sur sa tombe, est 1850[4].
-Jack est l'un des dix enfants de Calaway Daniel et Lucinda Cook. Perdant tôt sa mère et ne s'entendant pas avec sa nouvelle belle-mère, il est placé à l'âge de six ans chez un voisin fermier, « oncle Félix », de chez qui il fugue pour aller travailler chez un ami de son oncle, Dan Call, un prédicateur luthérien qui est aussi distillateur de whiskey selon le procédé de Lincoln County. C'est ce pasteur, ainsi que son maître distillateur Nearis Green, un esclave afro-américain, qui apprennent à Jack la fabrication de la boisson[5]. Plus tard, Dan Call décide de se consacrer entièrement à sa fonction de prédicateur et il vend à crédit son affaire à Jack en 1863 ; ce dernier n'obtient finalement son agrément qu'en 1866.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le site web du Jack Daniel's, le fondateur, Jack Daniel, est né le 5 septembre 1850, bien qu'on ne connaisse pas sa date de naissance exacte, les registres de naissance ayant été détruits dans un incendie du Palais de justice. Si son année de naissance (1846) est correcte, il aurait obtenu l'agrément pour être distillateur à l'âge de 20 ans, la distillerie revendiquant comme date de fondation l'année 1866. Selon le biographe Peter Krass (en), les registres de livre foncier montrent que la distillerie n'a pas été fondée avant 1875. Étrangement, son année de naissance, gravée sur sa tombe, est 1850.
+Jack est l'un des dix enfants de Calaway Daniel et Lucinda Cook. Perdant tôt sa mère et ne s'entendant pas avec sa nouvelle belle-mère, il est placé à l'âge de six ans chez un voisin fermier, « oncle Félix », de chez qui il fugue pour aller travailler chez un ami de son oncle, Dan Call, un prédicateur luthérien qui est aussi distillateur de whiskey selon le procédé de Lincoln County. C'est ce pasteur, ainsi que son maître distillateur Nearis Green, un esclave afro-américain, qui apprennent à Jack la fabrication de la boisson. Plus tard, Dan Call décide de se consacrer entièrement à sa fonction de prédicateur et il vend à crédit son affaire à Jack en 1863 ; ce dernier n'obtient finalement son agrément qu'en 1866.
 En 1895, il décide de changer la forme ronde de la bouteille pour celle carrée qui deviendra vite célèbre. Le breuvage connaît un certain succès. Daniel meurt en 1911 d'un sepsis (à la suite de l'infection d'un orteil cassé après avoir donné un coup de pied à son coffre-fort), date à laquelle la distillerie passe sous la direction de son neveu, Lem Motlow. Celui-ci, après un exil pendant la prohibition, relance la production à Lynchburg[réf. nécessaire].
-En 1941, le style particulier du bourbon élaboré dans le Tennessee est reconnu et une nouvelle appellation voit le jour : le Tennessee whiskey[1].
+En 1941, le style particulier du bourbon élaboré dans le Tennessee est reconnu et une nouvelle appellation voit le jour : le Tennessee whiskey.
 Aujourd’hui, la distillerie possède cinq alambics pour la fabrication des différentes versions de son whiskey.[réf. souhaitée]
 La particularité de celui-ci est qu’il est filtré au travers d’une couche de charbon de bois d'érable.
-En 1956, la société est rachetée par Brown-Forman[6].
+En 1956, la société est rachetée par Brown-Forman.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Slogan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« It's not Scotch. It's not Bourbon. It's Jack » (« Ce n'est pas un Scotch. Ce n'est pas un Bourbon. C'est du Jack »).
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les « classiques »[7],[8].
-Les « commémoratives[9] et séries limitées[10],[8],[11] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les « classiques »,.
+Les « commémoratives et séries limitées ».
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie possède un grand centre d'accueil pour les visiteurs.
 Malgré la présence de la distillerie sur son territoire, le comté de Moore est ce que l'on appelle un « dry county », c'est-à-dire un territoire où la vente d'alcool est interdite. Une dérogation permet à la distillerie de vendre des bouteilles aux touristes, excepté le dimanche.
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,11 +664,13 @@
           <t>Compétition automobile (Jack Daniel’s Racing Team)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, en collaboration avec Richard Childress Racing, Jack Daniel's signe un contrat de partenariat pour un montant annuel de 18 millions de dollars[14] pour la NASCAR et une Chevrolet Monte Carlo porte ses couleurs. La Chevrolet fait son entrée sur le Daytona International Speedway le 20 février 2005. Le 21 septembre 2009, Tim Rutledge (vice-président et directeur de la marque) déclare : « Jack Daniel's a apprécié les cinq années d'association avec Richard Childress Racing (RCR) et NASCAR, et nous sommes satisfaits des résultats de notre programme de parrainage »[Note 1],[15], mettant ainsi un terme à cinq années de sponsoring[16].
-À partir de 2006, le Jack Daniel’s Racing Team se lance en V8 Supercars, un championnat australien, avec des Nissan Altima pilotées par, entre autres, Marco Andretti, Todd Kelly, Alex Buncombe (en), Rick Kelly et David Russel, pour la Bathurst 1000[17].
-En 2008, toujours en Australie, une Holden Commodore break (en) SS V8 (6 L) aux couleurs de Jack Daniel's[18], conduite par Shane Price, Cameron McConville et Nathan Pretty, participe aux 12 Heures de Bathurst, une course d'endurance qui se tient au Mount Panorama Circuit, à Bathurst.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, en collaboration avec Richard Childress Racing, Jack Daniel's signe un contrat de partenariat pour un montant annuel de 18 millions de dollars pour la NASCAR et une Chevrolet Monte Carlo porte ses couleurs. La Chevrolet fait son entrée sur le Daytona International Speedway le 20 février 2005. Le 21 septembre 2009, Tim Rutledge (vice-président et directeur de la marque) déclare : « Jack Daniel's a apprécié les cinq années d'association avec Richard Childress Racing (RCR) et NASCAR, et nous sommes satisfaits des résultats de notre programme de parrainage »[Note 1] mettant ainsi un terme à cinq années de sponsoring.
+À partir de 2006, le Jack Daniel’s Racing Team se lance en V8 Supercars, un championnat australien, avec des Nissan Altima pilotées par, entre autres, Marco Andretti, Todd Kelly, Alex Buncombe (en), Rick Kelly et David Russel, pour la Bathurst 1000.
+En 2008, toujours en Australie, une Holden Commodore break (en) SS V8 (6 L) aux couleurs de Jack Daniel's, conduite par Shane Price, Cameron McConville et Nathan Pretty, participe aux 12 Heures de Bathurst, une course d'endurance qui se tient au Mount Panorama Circuit, à Bathurst.
 </t>
         </is>
       </c>
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jack_Daniel%27s</t>
+          <t>Jack_Daniel's</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,27 +699,64 @@
           <t>Séries limitées et hommages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Frank Sinatra est supposé être enterré avec une bouteille de Jack Daniel's. La marque lui rend hommage en lançant le Frank Sinatra Select[19],[20].
-Le Jack Daniel's No.7 était la boisson préférée de Lemmy Kilmister, leader du groupe Motörhead ; un étiquetage spécial lui est dédié : « Ian Killmister's - Old Time - 32 years of Motörhead - Quality Motöthead - Singer and bassplayer - 150db 100% Vol. - Distilled and bottled by Motörhead Distillery Great Britain[21] ».
-En musique
-Plusieurs artistes dédient une chanson à la marque, par exemple :
-Jerry Lee Lewis - Jack Daniel's Old No. 7[22] ;
-Eric Church - Jack Daniels[23] ;
-Miranda Lambert - Jack Daniel's[24] ;
-David Allan Coe - Jack Daniel's, If You Please[25] ;
-Gambino - Jack Daniel's[26] ;
-Dar-k - Jane &amp; Jack[27] ;
-Chase Rice - Jack Daniel's and Jesus[28] ;
-Sex Slaves - Thank God For Jack Daniel's[29] ;
-NuNo &amp; Vilaw featuring T-Mal - Jack Daniel's (Son)[30] ;
-Alou RTT featuring Sauzer - Jack Daniel's[31] ;
-M.O.B x DJ SKUNK - Jack Daniel[32] ;
-The Devil Makes Three - Old Number 7[33] ;
-Carnivore - Jack Daniel's and Pizza[34].
-Booba - Jack Da [1]
-Timal - La 7 (Freestyle Jack Dani)[35]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Sinatra est supposé être enterré avec une bouteille de Jack Daniel's. La marque lui rend hommage en lançant le Frank Sinatra Select,.
+Le Jack Daniel's No.7 était la boisson préférée de Lemmy Kilmister, leader du groupe Motörhead ; un étiquetage spécial lui est dédié : « Ian Killmister's - Old Time - 32 years of Motörhead - Quality Motöthead - Singer and bassplayer - 150db 100% Vol. - Distilled and bottled by Motörhead Distillery Great Britain ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jack_Daniel's</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jack_Daniel%27s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Séries limitées et hommages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plusieurs artistes dédient une chanson à la marque, par exemple :
+Jerry Lee Lewis - Jack Daniel's Old No. 7 ;
+Eric Church - Jack Daniels ;
+Miranda Lambert - Jack Daniel's ;
+David Allan Coe - Jack Daniel's, If You Please ;
+Gambino - Jack Daniel's ;
+Dar-k - Jane &amp; Jack ;
+Chase Rice - Jack Daniel's and Jesus ;
+Sex Slaves - Thank God For Jack Daniel's ;
+NuNo &amp; Vilaw featuring T-Mal - Jack Daniel's (Son) ;
+Alou RTT featuring Sauzer - Jack Daniel's ;
+M.O.B x DJ SKUNK - Jack Daniel ;
+The Devil Makes Three - Old Number 7 ;
+Carnivore - Jack Daniel's and Pizza.
+Booba - Jack Da 
+Timal - La 7 (Freestyle Jack Dani)
 SDM - Jack Fuego</t>
         </is>
       </c>
